--- a/Product_Backlog.xlsx
+++ b/Product_Backlog.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\may-18\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\chuyennghiep\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F954DEA1-622D-4AC7-A843-6B11FFC5DE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6060"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Ước lượng công việc của Sprint…</t>
   </si>
@@ -35,43 +44,101 @@
     <t>Hạng mục</t>
   </si>
   <si>
-    <t>Là quản lý doanh nghiệp, tôi muốn quản lý sản phẩm theo danh mục và thương hiệu</t>
-  </si>
-  <si>
-    <t>Là quản lý doanh nghiệp, tôi muốn thêm một sản phẩm mới</t>
-  </si>
-  <si>
-    <t>Là quản lý doanh nghiệp, tôi muốn chỉnh sửa thông tin sản phẩm</t>
-  </si>
-  <si>
-    <t>Là quản lý doanh nghiệp, tôi muốn xoá sản phẩm đã có trong hệ thống</t>
-  </si>
-  <si>
     <t>Là quản lý doanh nghiệp, tôi muốn xem tình trạng các đơn hàng đã, đang và sẽ hoàn tất</t>
   </si>
   <si>
-    <t>Là một người khách hàng, tôi muốn xem được tất cả các sản phẩm hiện có thông tin trong cửa hàng</t>
-  </si>
-  <si>
     <t>Là một người khách hàng, tôi muốn thêm sản phẩm vào giỏ hàng</t>
   </si>
   <si>
     <t>Là một người khách hàng, tôi muốn dễ dàng thao tác với giỏ hàng(cập nhật, xoá)</t>
   </si>
   <si>
-    <t>Là một người khách hàng, tôi muốn đặt hàng</t>
-  </si>
-  <si>
     <t>Là một người khách hàng, tôi muốn xem thông tin chi tiết một sản phẩm</t>
   </si>
   <si>
-    <t>Là một người khách hàng, tôi muốn quản lý thông tin tài khoản cá nhân của mình</t>
+    <t>Là quản lý doanh nghiệp, tôi muốn vào giao diện quản lý shop riêng biệt</t>
+  </si>
+  <si>
+    <t>Là Khách hàng tôi muốn đăng ký tài khoản và đăng nhập khi mua hàng</t>
+  </si>
+  <si>
+    <t>Tuần</t>
+  </si>
+  <si>
+    <t>Là quản lý doanh nghiệp, tôi muốn thêm một sản phẩm mới, chỉnh sửa thông tin hoặc xóa sản phẩm</t>
+  </si>
+  <si>
+    <t>Là khách hàng, tôi muốn vào trang chủ shop, xem tất cả các sản phẩm đang được bán</t>
+  </si>
+  <si>
+    <t>Là một người khách hàng, tôi muốn tìm kiếm một sản phẩm cụ thể theo tên</t>
+  </si>
+  <si>
+    <t>Là một người khách hàng, tôi muốn đặt hàng theo thông tin cá nhân của tôi</t>
+  </si>
+  <si>
+    <t>Là một người quản lý doanh nghiệp, tôi muốn thêm sửa xóa thông tin các nhân viên</t>
+  </si>
+  <si>
+    <t>Là một người khách hàng, tôi muốn thay đổi thông tin cá nhân cũng như thay đổi mật khẩu của mình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là môt người khách hàng, tôi muốn bình luận đánh giá một sản phẩm </t>
+  </si>
+  <si>
+    <t>Là một người quản lý doanh nghiệp, tôi muốn xem thống kế của một khoảng thời gian(1 tuần-1 quý-1 năm)</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Hoàn thiện giao diện trang quản lý.
+Trang chủ shop.</t>
+  </si>
+  <si>
+    <t>Hoàn thiện chức năng đăng nhập, đăng kí của khách hàng.</t>
+  </si>
+  <si>
+    <t>Hoàn thiện các chức năng thao tác với sản phẩm</t>
+  </si>
+  <si>
+    <t>Hoàn thiện trang chính shop.</t>
+  </si>
+  <si>
+    <t>Hoàn thiện trang chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng tìm kiếm sản phẩm</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng thêm sản phẩm vào giỏ hàng tại trang chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Xây dựng giỏ hàng cùng với các thao tác</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng đặt hàng tới tài khoản thông tin khách hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xây dựng chức năng quản lý đơn hàng tại trang quản lý </t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng thống kê doanh thu tại trang quản lý</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng quản lý nhân viên với các thao tác CRUD</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng quản lý tài khoản cá nhân của khách hàng</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng đánh giá sản phẩm danh cho khách hàng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,13 +168,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -394,161 +464,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="24.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.1796875" style="1"/>
+    <col min="9" max="9" width="9.90625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="B3:H3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Product_Backlog.xlsx
+++ b/Product_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\chuyennghiep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F954DEA1-622D-4AC7-A843-6B11FFC5DE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B32076-F700-4B50-A34A-66378BE39724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Ước lượng công việc của Sprint…</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Xây dựng chức năng đánh giá sản phẩm danh cho khách hàng</t>
+  </si>
+  <si>
+    <t>Là một khách hàng, tôi muốn xem lại danh sách các hóa đơn đã đặt</t>
+  </si>
+  <si>
+    <t>Xây dưng trang quản lý hóa đơn của khách hàng</t>
   </si>
 </sst>
 </file>
@@ -465,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H23"/>
+  <dimension ref="A3:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -640,58 +646,67 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3">
         <v>3</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
@@ -705,10 +720,13 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>

--- a/Product_Backlog.xlsx
+++ b/Product_Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\chuyennghiep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B32076-F700-4B50-A34A-66378BE39724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A87118-2E49-4B36-BB7C-A2E89673E583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H24"/>
+  <dimension ref="A3:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="24" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,14 +482,14 @@
     <col min="1" max="1" width="9.1796875" style="1"/>
     <col min="2" max="2" width="12.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.08984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.54296875" style="1" customWidth="1"/>
     <col min="6" max="8" width="9.1796875" style="1"/>
     <col min="9" max="9" width="9.90625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -500,7 +500,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -513,12 +513,35 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -531,8 +554,30 @@
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="3">
         <v>2</v>
@@ -543,8 +588,30 @@
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -557,8 +624,30 @@
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="3">
         <v>2</v>
@@ -569,8 +658,30 @@
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -583,8 +694,30 @@
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="3">
         <v>2</v>
@@ -595,8 +728,30 @@
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E10" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="3">
         <v>3</v>
@@ -607,8 +762,30 @@
       <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="3">
         <v>4</v>
@@ -619,8 +796,30 @@
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>6</v>
       </c>
@@ -633,8 +832,32 @@
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="3">
         <v>2</v>
@@ -645,8 +868,32 @@
       <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="3">
         <v>3</v>
@@ -657,8 +904,34 @@
       <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="3">
         <v>4</v>
@@ -669,8 +942,34 @@
       <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>7</v>
       </c>
@@ -683,8 +982,34 @@
       <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="3">
         <v>2</v>
@@ -695,8 +1020,36 @@
       <c r="D18" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="3">
         <v>3</v>
@@ -707,21 +1060,119 @@
       <c r="D19" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
